--- a/hsrochef/TEDxSVSU/RochefortTEDxSVSUComparison.xlsx
+++ b/hsrochef/TEDxSVSU/RochefortTEDxSVSUComparison.xlsx
@@ -15,12 +15,583 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="186">
+  <si>
+    <t>Website Evaluation</t>
+  </si>
+  <si>
+    <t>TEDxSVSU2015</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>SCHEDULE</t>
+  </si>
+  <si>
+    <t>SPEAKERS</t>
+  </si>
+  <si>
+    <t>EXHIBITS</t>
+  </si>
+  <si>
+    <t>NEWS</t>
+  </si>
+  <si>
+    <t>CONTACTS</t>
+  </si>
+  <si>
+    <t>VOLUNTEERS</t>
+  </si>
+  <si>
+    <t>MORE...</t>
+  </si>
+  <si>
+    <t>_ASSIGNMENTS</t>
+  </si>
+  <si>
+    <t>_BACKGROUND VIDEOS</t>
+  </si>
+  <si>
+    <t>_SAMEPLE TEDX VIDEOS</t>
+  </si>
+  <si>
+    <t>TEDXSVSU2016</t>
+  </si>
+  <si>
+    <t>TICKETS</t>
+  </si>
+  <si>
+    <t>2016 SPEAKERS</t>
+  </si>
+  <si>
+    <t>_2015 SPEAKERS</t>
+  </si>
+  <si>
+    <t>CONTACT</t>
+  </si>
+  <si>
+    <t>Website Design</t>
+  </si>
+  <si>
+    <t>Aspects</t>
+  </si>
+  <si>
+    <t>User-Friendlyness</t>
+  </si>
+  <si>
+    <t>Intuative</t>
+  </si>
+  <si>
+    <t>Meaningful</t>
+  </si>
+  <si>
+    <t>Browser Compatibility</t>
+  </si>
+  <si>
+    <t>Mobile Compatability</t>
+  </si>
+  <si>
+    <t>Main Idea</t>
+  </si>
+  <si>
+    <t>TEDXSVSU2017</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Good. All information is present concisely on the first page, no confusion. Top banner out of date.</t>
+  </si>
+  <si>
+    <t>Works well in different browsers/resolutions</t>
+  </si>
+  <si>
+    <t>Information is well present on mobile. Spacing could be improved, very 'scrunched', 'hit boxes' for links are accurate enough for my fat thumbs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing here that really presents any valid information, okay. Not great. </t>
+  </si>
+  <si>
+    <t>Anyone that can read should be able to know what the link will show before clicking</t>
+  </si>
+  <si>
+    <t>I think it would be nice to not have to scroll down to see what a TEDx is, maybe do this by shifting material up.</t>
+  </si>
+  <si>
+    <t>If you find this site, you know what you're looking for. The website fufills any question you might have</t>
+  </si>
+  <si>
+    <t>Clearly and concisely gives informatiob people are searching for</t>
+  </si>
+  <si>
+    <t>Buttons have good areas to click on them, meaning there should be no accidental clicks to other links</t>
+  </si>
+  <si>
+    <t>Theres a lot of space on the drop down bar... I think it would have been okay to not include More... And instead just put information up. Why is there a button for home page... On the home page? Unnecessary</t>
+  </si>
+  <si>
+    <t>Good. Easy to access</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>Not as great, information is really tight on this page, if you're not familiar with mobile browsers it may be hard to find this page at all. Would be nice to have toolbar like home page on desktop</t>
+  </si>
+  <si>
+    <t>Good usage here of maps</t>
+  </si>
+  <si>
+    <t>Just scroll down for more information. Clearly labeled buttons for downloads. Could have had  a better use of 'speakers' and 'exhibits' instead of hyperlinks in the middle of a paragraph</t>
+  </si>
+  <si>
+    <t>I'm not so sure this page couldn’t have been conjoined with the speakers page</t>
+  </si>
+  <si>
+    <t>Clearly shows where and when the speakers will be presetnging</t>
+  </si>
+  <si>
+    <t>Shows when TEDx Speakers will be presenting</t>
+  </si>
+  <si>
+    <t>Possbily difficult on mobile, easy on desktop as the large navigation buttons still exist</t>
+  </si>
+  <si>
+    <t>Good. This page shows enough information about each speaker without becoming unncessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"" </t>
+  </si>
+  <si>
+    <t>Good. These photos are clear and concise. Good to put a face to a name</t>
+  </si>
+  <si>
+    <t>Not sure this page is a good page for the application, could've been in the 'More...' tab</t>
+  </si>
+  <si>
+    <t>Gives detailed information about speakers credibilities</t>
+  </si>
+  <si>
+    <t>Provide info about speakers</t>
+  </si>
+  <si>
+    <t>Users are looking for who will be speaking</t>
+  </si>
+  <si>
+    <t>Allows users to see if the speaker will be talking about a subject they are interested in</t>
+  </si>
+  <si>
+    <t>Great. This is actually probably one of the best pages. Clearly gives an idea about what is being discussed and uses good content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" " </t>
+  </si>
+  <si>
+    <t>Great. The links to mulitple videos really give users an idea of what will be present</t>
+  </si>
+  <si>
+    <t>Easy to navigate</t>
+  </si>
+  <si>
+    <t>Shows what to expect this years talks</t>
+  </si>
+  <si>
+    <t>Explains what exhibits are while showing new ones</t>
+  </si>
+  <si>
+    <t>Gives details on exhibits</t>
+  </si>
+  <si>
+    <t>Presumably to find out if user is interested in hearing them speak based on their bio</t>
+  </si>
+  <si>
+    <t>Not good. This page looks a bit sloppy in my opinion, and I think it may be because of how old the site is it doesn’t look well maintained</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Easy to access new and old news</t>
+  </si>
+  <si>
+    <t>Shows what has been accomplished at TEDx</t>
+  </si>
+  <si>
+    <t>Keeps users updated at what is happening around the Talks</t>
+  </si>
+  <si>
+    <t>Really is probably only good for the week before and after the talks happen</t>
+  </si>
+  <si>
+    <t>Keeps users up to date</t>
+  </si>
+  <si>
+    <t>How could it not be user-friendly with that guy on the page?</t>
+  </si>
+  <si>
+    <t>The best pictures of the whole website by far</t>
+  </si>
+  <si>
+    <t>Everything that would be expected in a contact page is here</t>
+  </si>
+  <si>
+    <t>Easy to access any needed information</t>
+  </si>
+  <si>
+    <t>Allows users or speakers to get in contact of the orgainzer</t>
+  </si>
+  <si>
+    <t>This page would be for users or speakers unaware of who was in charge</t>
+  </si>
+  <si>
+    <t>Easy to use and information is displayed appropriately</t>
+  </si>
+  <si>
+    <t>Seems unncessary to have students faces, slows load times</t>
+  </si>
+  <si>
+    <t>Easily accessbily well explained</t>
+  </si>
+  <si>
+    <t>No, not sure if this page is necessary at all</t>
+  </si>
+  <si>
+    <t>To give props and explain benefits to student volunteers</t>
+  </si>
+  <si>
+    <t>Shows who helps make things tick behind the scense</t>
+  </si>
+  <si>
+    <t>Shows how to become a volunteer</t>
+  </si>
+  <si>
+    <t>Easy to navigate, page is extended by having names of all volunteers in a single column list</t>
+  </si>
+  <si>
+    <t>Not sure what is going on with this page. Looks not finished</t>
+  </si>
+  <si>
+    <t>It works but it isn't pretty</t>
+  </si>
+  <si>
+    <t>Doesn’t show that it is actually submenus under 'More...' on mobile</t>
+  </si>
+  <si>
+    <t>None here</t>
+  </si>
+  <si>
+    <t>I'd really consider this page broken, not much going on here for outside users, looks like it is supposed to have some internal use.</t>
+  </si>
+  <si>
+    <t>No text, videos only. Creates long load times</t>
+  </si>
+  <si>
+    <t>Videos have photos that represent a thumbnail from the video, not necessarily descriptive of what video is about</t>
+  </si>
+  <si>
+    <t>Click the video to play</t>
+  </si>
+  <si>
+    <t>Videos pretty much explain what was given in text on previous pages</t>
+  </si>
+  <si>
+    <t>video representation of what happens at TEDX</t>
+  </si>
+  <si>
+    <t>Background videos are really just extra material for user to watch if really interested</t>
+  </si>
+  <si>
+    <t>Shows information in video format</t>
+  </si>
+  <si>
+    <t>Videos in 4x4 square, which created a clear seperation between videos</t>
+  </si>
+  <si>
+    <t>This is better than the background videos page, as it has text about what the video is about</t>
+  </si>
+  <si>
+    <t>These videos are lectures which give you an idea of what a tedx will be like in person</t>
+  </si>
+  <si>
+    <t>Multiple Idea, the videos show a bunch of different experts talk about their subject</t>
+  </si>
+  <si>
+    <t>Again for users to see additional infromation if interested</t>
+  </si>
+  <si>
+    <t>To allow users to get a sense of what they are in for at TEDx and get inspired to see our speakers talk</t>
+  </si>
+  <si>
+    <t>Each video being individually labeled helps clear up what the video will be about</t>
+  </si>
+  <si>
+    <t>Bad. If user isn't familiar with TED, they are going to have much of a reason to continue looking at home page</t>
+  </si>
+  <si>
+    <t>Bad, changes from resolution to resolution picutres are out of resolution, very grainy</t>
+  </si>
+  <si>
+    <t>Really bad... Almost un-readable</t>
+  </si>
+  <si>
+    <t>Don't really have any relevance to information</t>
+  </si>
+  <si>
+    <t>Buttons that take you to other pages are easy to use and descriptive</t>
+  </si>
+  <si>
+    <t>Not really, any information except the date and university of talks</t>
+  </si>
+  <si>
+    <t>Unclear from this homepage</t>
+  </si>
+  <si>
+    <t>Launch page to additonal information</t>
+  </si>
+  <si>
+    <t>Users are looking for information about TEDx</t>
+  </si>
+  <si>
+    <t>easy to navigate, seems unncessary to have 'Event location located under tickets tab' and not just say the location instead...</t>
+  </si>
+  <si>
+    <t>Just a wall of text with a 'Buy Now' button</t>
+  </si>
+  <si>
+    <t>Could have really benefited from a google map here, or map of the campus</t>
+  </si>
+  <si>
+    <t>Just scroll down and read</t>
+  </si>
+  <si>
+    <t>Gives information, but not in any particular order</t>
+  </si>
+  <si>
+    <t>Shows how to and why to buy tickets</t>
+  </si>
+  <si>
+    <t>Uers are looking for a place to buy tickets to talks</t>
+  </si>
+  <si>
+    <t>Allows buying of tickets</t>
+  </si>
+  <si>
+    <t>Easy to get to, just scroll down for information</t>
+  </si>
+  <si>
+    <t>Shows users a face to go with the name</t>
+  </si>
+  <si>
+    <t>Easy to get to, easy to read. Formatting isn't lined up.</t>
+  </si>
+  <si>
+    <t>Scroll down for information, formatting is confusing because of the margins</t>
+  </si>
+  <si>
+    <t>Information about each speaker</t>
+  </si>
+  <si>
+    <t>Shows whether the user would be interested in the speech</t>
+  </si>
+  <si>
+    <t>Users looking for more infomration about speaker, before or after event</t>
+  </si>
+  <si>
+    <t>Allows users to see what speakers look like, and get an idea of their education and lives</t>
+  </si>
+  <si>
+    <t>Scroll down form moreinfomration</t>
+  </si>
+  <si>
+    <t>Not really sure why the 2015 speakers are relevant to the 2016 TEDX</t>
+  </si>
+  <si>
+    <t>Allows users to see what previous speakers have attended</t>
+  </si>
+  <si>
+    <t>Same as 2016, drop down feature under '2016 Speakers' it seems like an unexpected place to have it, possbily a little down arrow would avoid confusion</t>
+  </si>
+  <si>
+    <t>The main button on the page does not work</t>
+  </si>
+  <si>
+    <t>Much of the test is shifted and some even unreadable</t>
+  </si>
+  <si>
+    <t>Finally theres a map of the location of the event. Wrong place for it</t>
+  </si>
+  <si>
+    <t>Would be intuative if the page worked properly</t>
+  </si>
+  <si>
+    <t>Would have been nice to know who was in charge of orgainization or direct contact information incase the links failed</t>
+  </si>
+  <si>
+    <t>How to contact those in charge</t>
+  </si>
+  <si>
+    <t>Allows users to find additonal information</t>
+  </si>
+  <si>
+    <t>Supposed to be able to contact for questions or collaborations</t>
+  </si>
+  <si>
+    <t>Easy to navigate, not a lot of information on this page</t>
+  </si>
+  <si>
+    <t>TEDXVIDEOS</t>
+  </si>
+  <si>
+    <t>All the information you need to purchase tickets and location is right at the top of the page allowing you to quickly find what you need</t>
+  </si>
+  <si>
+    <t>Works well in different browsers and maximized and windowed modes</t>
+  </si>
+  <si>
+    <t>Works well on mobile and are able to see all pages</t>
+  </si>
+  <si>
+    <t>Pictures</t>
+  </si>
+  <si>
+    <t>The pictures are just aesthetic showing what might be expected if attedning the event</t>
+  </si>
+  <si>
+    <t>Everything is easily clickable</t>
+  </si>
+  <si>
+    <t>Every button should let the user know where it's going to take them before they push it</t>
+  </si>
+  <si>
+    <t>The idea is to get users to the purchase and location information as fast as possible</t>
+  </si>
+  <si>
+    <t>People accessing this site would already know about the event most likely</t>
+  </si>
+  <si>
+    <t>To get people access to buying tickets are provide them informatiob about what we are doing</t>
+  </si>
+  <si>
+    <t>Everything is easily accessbile</t>
+  </si>
+  <si>
+    <t>The text allows them to directly find the information they are looking for without searching Since they are most likely buying tickets at this point the location is provided exactly where its needed</t>
+  </si>
+  <si>
+    <t>Embeded google maps allow users to enter their location and immediately get directions through the power of the Google</t>
+  </si>
+  <si>
+    <t>A very simple looking webpage does away with unneccesary information, no marketplace availability</t>
+  </si>
+  <si>
+    <t>The needed information is present</t>
+  </si>
+  <si>
+    <t>To get users the tickets</t>
+  </si>
+  <si>
+    <t>To allow people to buy tickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard to get lost here since google maps is on the page! </t>
+  </si>
+  <si>
+    <t>Pictures show the users who will be talking</t>
+  </si>
+  <si>
+    <t>Pictures of the people that will be giving presentations</t>
+  </si>
+  <si>
+    <t>Not much here to go wrong, just pictures and information, pictures are rather large though</t>
+  </si>
+  <si>
+    <t>Could have more information but this page is mostly written as an example of what the speaker page will look like</t>
+  </si>
+  <si>
+    <t>To show users who will be talking about what</t>
+  </si>
+  <si>
+    <t>Users are here to look for what will be talked about</t>
+  </si>
+  <si>
+    <t>Showing users who is talking</t>
+  </si>
+  <si>
+    <t>Just scroll down for more information about the page</t>
+  </si>
+  <si>
+    <t>Nice and simple, just a list of information for users to conact the admin about additional information</t>
+  </si>
+  <si>
+    <t>No pictures are necessary here</t>
+  </si>
+  <si>
+    <t>Very intuative, the comment form allows users to submit right from the webpage</t>
+  </si>
+  <si>
+    <t>Just a form box to allow outside questions</t>
+  </si>
+  <si>
+    <t>To answers questions the users have</t>
+  </si>
+  <si>
+    <t>People here are looking for additonal information about the event</t>
+  </si>
+  <si>
+    <t>Allow users a way to get into contact with ogranizers</t>
+  </si>
+  <si>
+    <t>Very easy, just scroll down and enter your questions into the comment box, or use other information for contact</t>
+  </si>
+  <si>
+    <t>Just a page of videos that shows users what to expect will be at TEDxSVSU</t>
+  </si>
+  <si>
+    <t>The theumbnails from the videos give users an idea of what the talks will look lke</t>
+  </si>
+  <si>
+    <t>Just click the video that is interesting to hear that talk</t>
+  </si>
+  <si>
+    <t>The page doesn't have much meaning other than to allow people to get more of their TEDx fix</t>
+  </si>
+  <si>
+    <t>Showing what users are to expect</t>
+  </si>
+  <si>
+    <t>Users here are most likely just browsing the site at this point and seeing what content is available</t>
+  </si>
+  <si>
+    <t>People will be using this site to decide if TEDx is something they are interested in attednign</t>
+  </si>
+  <si>
+    <t>Just scroll down to see more videos</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -43,13 +614,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -349,13 +926,796 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" t="s">
+        <v>153</v>
+      </c>
+      <c r="K27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" t="s">
+        <v>167</v>
+      </c>
+      <c r="J29" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" t="s">
+        <v>175</v>
+      </c>
+      <c r="J30" t="s">
+        <v>176</v>
+      </c>
+      <c r="K30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" t="s">
+        <v>182</v>
+      </c>
+      <c r="I31" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="F13:K13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A26" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
